--- a/export/template.xlsx
+++ b/export/template.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
